--- a/resources/график_поставок.xlsx
+++ b/resources/график_поставок.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>bf 109 e-7</t>
   </si>
@@ -178,12 +177,6 @@
   </si>
   <si>
     <t>график поставок</t>
-  </si>
-  <si>
-    <t>Начальные самолёты фронтовых аэродромов</t>
-  </si>
-  <si>
-    <t>Сумма на филд</t>
   </si>
 </sst>
 </file>
@@ -254,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -272,9 +265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -593,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="B8" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C8" s="3">
         <v>200</v>
@@ -974,7 +964,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C13" s="3">
         <v>50</v>
@@ -1326,7 +1316,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C21" s="3">
         <v>100</v>
@@ -1459,7 +1449,7 @@
       </c>
       <c r="B24" s="3">
         <f>SUM(B8:B23)</f>
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C24" s="5">
         <f>SUM(C8:C23)</f>
@@ -1517,7 +1507,7 @@
       </c>
       <c r="B25" s="5">
         <f>B24/B2</f>
-        <v>100</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="C25" s="5">
         <f>C24/B2</f>
@@ -1591,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C27" s="3">
         <v>50</v>
@@ -1635,7 +1625,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="C28" s="3">
         <v>200</v>
@@ -1899,7 +1889,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="3">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="C34" s="3">
         <v>100</v>
@@ -2184,7 +2174,7 @@
       </c>
       <c r="B41" s="3">
         <f>SUM(B27:B39)</f>
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="C41" s="5">
         <f>SUM(C27:C39)</f>
@@ -2242,7 +2232,7 @@
       </c>
       <c r="B42" s="5">
         <f>B41/B3</f>
-        <v>94.736842105263165</v>
+        <v>78.94736842105263</v>
       </c>
       <c r="C42" s="5">
         <f>C41/B3</f>
@@ -2317,225 +2307,4 @@
     <ignoredError sqref="O24" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="13"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6">
-        <f>SUM(B3:B5)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B8:B10)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="13"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19">
-        <f>SUM(B13:B18)</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <f>SUM(B21:B26)</f>
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A12:B12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>